--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3154658.436485642</v>
+        <v>3141921.145558733</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559512.0876269373</v>
+        <v>559512.0876269366</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>132.0062109600003</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>109.2796469481094</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -791,16 +791,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>75.68677112918741</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>57.37407042976156</v>
       </c>
       <c r="C4" t="n">
-        <v>91.90264108518336</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>36.85525315838827</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>173.2425055542739</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -989,10 +989,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>17.5018317462869</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>118.4584355634112</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>149.1449268053085</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>330.5285890533857</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>98.10558888395026</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>103.4624205966087</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1268,16 +1268,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>183.496787923697</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.590085938789</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>285.1569428697733</v>
       </c>
       <c r="F11" t="n">
         <v>304.3287589577504</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8599043161833196</v>
+        <v>70.97205570826428</v>
       </c>
       <c r="T11" t="n">
         <v>114.7624461578086</v>
       </c>
       <c r="U11" t="n">
-        <v>146.6250070121021</v>
+        <v>63.88483199878837</v>
       </c>
       <c r="V11" t="n">
         <v>227.9285615378371</v>
@@ -1435,7 +1435,7 @@
         <v>253.228661015794</v>
       </c>
       <c r="X11" t="n">
-        <v>272.5289192485407</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>283.9255170447394</v>
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1508,7 +1508,7 @@
         <v>216.2963996197277</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261498</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235511</v>
       </c>
       <c r="C13" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775559</v>
       </c>
       <c r="D13" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533398</v>
       </c>
       <c r="E13" t="n">
-        <v>44.80800427111342</v>
+        <v>44.80800427111343</v>
       </c>
       <c r="F13" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929974</v>
       </c>
       <c r="G13" t="n">
-        <v>61.37830121830678</v>
+        <v>61.3783012183068</v>
       </c>
       <c r="H13" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888994</v>
       </c>
       <c r="I13" t="n">
-        <v>31.92773068686451</v>
+        <v>31.92773068686407</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>178.6280720123007</v>
       </c>
       <c r="V13" t="n">
-        <v>152.4470315719805</v>
+        <v>152.4470315719807</v>
       </c>
       <c r="W13" t="n">
         <v>177.6139176425939</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>284.422184297658</v>
       </c>
       <c r="C14" t="n">
-        <v>272.4335012553398</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>263.4148052998677</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>285.1569428697733</v>
       </c>
       <c r="F14" t="n">
         <v>304.3287589577504</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.9004854041928</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.68293822525307</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.97205570826426</v>
+        <v>30.60173318376941</v>
       </c>
       <c r="T14" t="n">
-        <v>100.9543259159589</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U14" t="n">
         <v>146.6250070121021</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235511</v>
       </c>
       <c r="C16" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775559</v>
       </c>
       <c r="D16" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533398</v>
       </c>
       <c r="E16" t="n">
-        <v>44.80800427111342</v>
+        <v>44.80800427111343</v>
       </c>
       <c r="F16" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929974</v>
       </c>
       <c r="G16" t="n">
-        <v>61.37830121830678</v>
+        <v>61.3783012183068</v>
       </c>
       <c r="H16" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888994</v>
       </c>
       <c r="I16" t="n">
-        <v>31.92773068686451</v>
+        <v>31.92773068686452</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.64201932678916</v>
+        <v>34.64201932678908</v>
       </c>
       <c r="S16" t="n">
         <v>102.905928725284</v>
@@ -1821,7 +1821,7 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U16" t="n">
-        <v>178.6280720123005</v>
+        <v>178.6280720123002</v>
       </c>
       <c r="V16" t="n">
         <v>152.4470315719807</v>
@@ -1849,19 +1849,19 @@
         <v>272.4335012553398</v>
       </c>
       <c r="D17" t="n">
-        <v>134.7941665619692</v>
+        <v>263.4148052998677</v>
       </c>
       <c r="E17" t="n">
         <v>285.1569428697733</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G17" t="n">
         <v>305.880075781887</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>194.8328318700847</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>227.9285615378371</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>253.228661015794</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>272.5289192485407</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235508</v>
       </c>
       <c r="C19" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775557</v>
       </c>
       <c r="D19" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533396</v>
       </c>
       <c r="E19" t="n">
-        <v>44.80800427111342</v>
+        <v>44.8080042711134</v>
       </c>
       <c r="F19" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929971</v>
       </c>
       <c r="G19" t="n">
-        <v>61.37830121830678</v>
+        <v>61.37830121830676</v>
       </c>
       <c r="H19" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888991</v>
       </c>
       <c r="I19" t="n">
         <v>31.92773068686451</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.64201932678907</v>
+        <v>34.64201932678939</v>
       </c>
       <c r="S19" t="n">
         <v>102.905928725284</v>
       </c>
       <c r="T19" t="n">
-        <v>124.4341970263864</v>
+        <v>124.4341970263865</v>
       </c>
       <c r="U19" t="n">
         <v>178.6280720123007</v>
@@ -2067,10 +2067,10 @@
         <v>177.6139176425939</v>
       </c>
       <c r="X19" t="n">
-        <v>123.2590196383971</v>
+        <v>123.259019638397</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.1338873944648</v>
+        <v>114.1338873944647</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>263.4148052998677</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>285.1569428697733</v>
       </c>
       <c r="F20" t="n">
         <v>304.3287589577504</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>305.880075781887</v>
       </c>
       <c r="H20" t="n">
-        <v>219.9004854041928</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.97205570826426</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>227.9285615378371</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>152.3063017136415</v>
+        <v>194.8328318700847</v>
       </c>
       <c r="X20" t="n">
         <v>272.5289192485407</v>
@@ -2174,7 +2174,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361808</v>
       </c>
       <c r="H21" t="n">
         <v>96.9647737324037</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235508</v>
       </c>
       <c r="C22" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775557</v>
       </c>
       <c r="D22" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533396</v>
       </c>
       <c r="E22" t="n">
-        <v>44.80800427111342</v>
+        <v>44.8080042711134</v>
       </c>
       <c r="F22" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929971</v>
       </c>
       <c r="G22" t="n">
-        <v>61.37830121830678</v>
+        <v>61.37830121830677</v>
       </c>
       <c r="H22" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888991</v>
       </c>
       <c r="I22" t="n">
-        <v>31.92773068686451</v>
+        <v>31.9277306868645</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.64201932678907</v>
+        <v>34.64201932678906</v>
       </c>
       <c r="S22" t="n">
         <v>102.905928725284</v>
@@ -2304,10 +2304,10 @@
         <v>177.6139176425939</v>
       </c>
       <c r="X22" t="n">
-        <v>123.2590196383971</v>
+        <v>123.259019638397</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.1338873944648</v>
+        <v>114.1338873944647</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>305.880075781887</v>
       </c>
       <c r="H23" t="n">
-        <v>219.4471073844801</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.68293822525309</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>227.9285615378371</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>253.228661015794</v>
+        <v>194.8328318700847</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>272.5289192485407</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>283.9255170447394</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235508</v>
       </c>
       <c r="C25" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775557</v>
       </c>
       <c r="D25" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533396</v>
       </c>
       <c r="E25" t="n">
-        <v>44.80800427111342</v>
+        <v>44.8080042711134</v>
       </c>
       <c r="F25" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929971</v>
       </c>
       <c r="G25" t="n">
-        <v>61.37830121830678</v>
+        <v>61.37830121830677</v>
       </c>
       <c r="H25" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888991</v>
       </c>
       <c r="I25" t="n">
-        <v>31.92773068686451</v>
+        <v>31.9277306868645</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.64201932678908</v>
+        <v>34.64201932678906</v>
       </c>
       <c r="S25" t="n">
         <v>102.905928725284</v>
@@ -2541,10 +2541,10 @@
         <v>177.6139176425939</v>
       </c>
       <c r="X25" t="n">
-        <v>123.2590196383971</v>
+        <v>123.259019638397</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.1338873944648</v>
+        <v>114.1338873944647</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>284.422184297658</v>
       </c>
       <c r="C26" t="n">
-        <v>272.4335012553398</v>
+        <v>272.4335012553397</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>263.4148052998677</v>
       </c>
       <c r="E26" t="n">
-        <v>285.1569428697733</v>
+        <v>285.1569428697732</v>
       </c>
       <c r="F26" t="n">
         <v>304.3287589577504</v>
       </c>
       <c r="G26" t="n">
-        <v>305.880075781887</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>219.9004854041928</v>
+        <v>106.3501024808083</v>
       </c>
       <c r="I26" t="n">
-        <v>50.6829382252531</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.97205570826422</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W26" t="n">
         <v>253.228661015794</v>
       </c>
       <c r="X26" t="n">
-        <v>206.9644717732529</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>283.9255170447394</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.03889517235511</v>
+        <v>76.03889517235505</v>
       </c>
       <c r="C28" t="n">
-        <v>62.23889001775559</v>
+        <v>62.23889001775554</v>
       </c>
       <c r="D28" t="n">
-        <v>45.86025441533398</v>
+        <v>45.86025441533393</v>
       </c>
       <c r="E28" t="n">
-        <v>44.80800427111343</v>
+        <v>44.80800427111338</v>
       </c>
       <c r="F28" t="n">
-        <v>45.27492859929974</v>
+        <v>45.27492859929968</v>
       </c>
       <c r="G28" t="n">
-        <v>61.3783012183068</v>
+        <v>61.37830121830674</v>
       </c>
       <c r="H28" t="n">
-        <v>50.57471857888994</v>
+        <v>50.57471857888989</v>
       </c>
       <c r="I28" t="n">
-        <v>31.92773068686453</v>
+        <v>31.92773068686447</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.64201932678909</v>
+        <v>34.64201932678903</v>
       </c>
       <c r="S28" t="n">
         <v>102.905928725284</v>
@@ -2769,19 +2769,19 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U28" t="n">
-        <v>178.6280720123007</v>
+        <v>178.6280720123006</v>
       </c>
       <c r="V28" t="n">
-        <v>152.4470315719807</v>
+        <v>152.4470315719806</v>
       </c>
       <c r="W28" t="n">
         <v>177.6139176425939</v>
       </c>
       <c r="X28" t="n">
-        <v>123.2590196383965</v>
+        <v>123.259019638397</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.1338873944648</v>
+        <v>114.133887394466</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.422184297658</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>272.4335012553398</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>263.4148052998677</v>
       </c>
       <c r="E29" t="n">
-        <v>203.4063996555978</v>
+        <v>285.1569428697732</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>138.9138225267799</v>
       </c>
       <c r="H29" t="n">
         <v>219.9004854041928</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.97205570826428</v>
+        <v>70.97205570826422</v>
       </c>
       <c r="T29" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V29" t="n">
         <v>227.9285615378371</v>
@@ -2857,7 +2857,7 @@
         <v>253.228661015794</v>
       </c>
       <c r="X29" t="n">
-        <v>272.5289192485407</v>
+        <v>272.5289192485406</v>
       </c>
       <c r="Y29" t="n">
         <v>283.9255170447394</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.03889517235511</v>
+        <v>76.03889517235505</v>
       </c>
       <c r="C31" t="n">
-        <v>62.23889001775559</v>
+        <v>62.23889001775554</v>
       </c>
       <c r="D31" t="n">
-        <v>45.86025441533398</v>
+        <v>45.86025441533393</v>
       </c>
       <c r="E31" t="n">
-        <v>44.80800427111343</v>
+        <v>44.80800427111338</v>
       </c>
       <c r="F31" t="n">
-        <v>45.27492859929974</v>
+        <v>45.27492859929968</v>
       </c>
       <c r="G31" t="n">
-        <v>61.37830121830679</v>
+        <v>61.37830121830674</v>
       </c>
       <c r="H31" t="n">
-        <v>50.57471857888989</v>
+        <v>50.57471857888991</v>
       </c>
       <c r="I31" t="n">
-        <v>31.92773068686454</v>
+        <v>31.92773068686451</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.64201932678908</v>
+        <v>34.64201932678903</v>
       </c>
       <c r="S31" t="n">
         <v>102.905928725284</v>
@@ -3006,19 +3006,19 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U31" t="n">
-        <v>178.6280720123007</v>
+        <v>178.6280720123006</v>
       </c>
       <c r="V31" t="n">
-        <v>152.4470315719807</v>
+        <v>152.4470315719806</v>
       </c>
       <c r="W31" t="n">
         <v>177.6139176425939</v>
       </c>
       <c r="X31" t="n">
-        <v>123.2590196383971</v>
+        <v>123.259019638397</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.1338873944648</v>
+        <v>114.1338873944647</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>281.8475515734311</v>
+        <v>281.8475515734312</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>269.8588685311129</v>
       </c>
       <c r="D32" t="n">
-        <v>260.8401725756408</v>
+        <v>0.2621091343622129</v>
       </c>
       <c r="E32" t="n">
         <v>282.5823101455464</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>301.7541262335236</v>
       </c>
       <c r="G32" t="n">
-        <v>303.3054430576601</v>
+        <v>303.3054430576602</v>
       </c>
       <c r="H32" t="n">
-        <v>217.3258526799659</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>48.10830550102619</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>59.31687194522318</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>112.1878134335817</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>144.0503742878752</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>225.3539288136103</v>
@@ -3094,10 +3094,10 @@
         <v>250.6540282915672</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>269.9542865243138</v>
       </c>
       <c r="Y32" t="n">
-        <v>281.3508843205125</v>
+        <v>281.3508843205126</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.4642624481282</v>
+        <v>73.46426244812827</v>
       </c>
       <c r="C34" t="n">
-        <v>59.66425729352868</v>
+        <v>59.66425729352875</v>
       </c>
       <c r="D34" t="n">
-        <v>43.28562169110707</v>
+        <v>43.28562169110714</v>
       </c>
       <c r="E34" t="n">
-        <v>42.23337154688652</v>
+        <v>42.23337154688659</v>
       </c>
       <c r="F34" t="n">
-        <v>42.70029587507283</v>
+        <v>42.7002958750729</v>
       </c>
       <c r="G34" t="n">
-        <v>58.80366849407988</v>
+        <v>58.80366849407995</v>
       </c>
       <c r="H34" t="n">
-        <v>48.00008585466303</v>
+        <v>48.0000858546631</v>
       </c>
       <c r="I34" t="n">
-        <v>29.35309796263761</v>
+        <v>29.35309796263768</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.06738660256217</v>
+        <v>32.06738660256224</v>
       </c>
       <c r="S34" t="n">
-        <v>100.3312960010571</v>
+        <v>100.3312960010572</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8595643021595</v>
+        <v>121.8595643021596</v>
       </c>
       <c r="U34" t="n">
-        <v>176.0534392880738</v>
+        <v>176.0534392880739</v>
       </c>
       <c r="V34" t="n">
-        <v>149.8723988477538</v>
+        <v>149.8723988477539</v>
       </c>
       <c r="W34" t="n">
         <v>175.0392849183671</v>
@@ -3255,7 +3255,7 @@
         <v>120.6843869141702</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.5592546702378</v>
+        <v>111.5592546702379</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.58945618468485</v>
+        <v>281.8475515734312</v>
       </c>
       <c r="C35" t="n">
         <v>269.8588685311129</v>
       </c>
       <c r="D35" t="n">
-        <v>260.8401725756408</v>
+        <v>260.8401725756409</v>
       </c>
       <c r="E35" t="n">
         <v>282.5823101455464</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>301.7541262335236</v>
       </c>
       <c r="G35" t="n">
-        <v>303.3054430576601</v>
+        <v>303.3054430576602</v>
       </c>
       <c r="H35" t="n">
-        <v>217.3258526799659</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>48.10830550102619</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>225.3539288136103</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>250.6540282915672</v>
+        <v>215.429893663899</v>
       </c>
       <c r="X35" t="n">
         <v>269.9542865243138</v>
       </c>
       <c r="Y35" t="n">
-        <v>281.3508843205125</v>
+        <v>281.3508843205126</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361808</v>
       </c>
       <c r="H36" t="n">
         <v>96.9647737324037</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.4642624481282</v>
+        <v>73.46426244812827</v>
       </c>
       <c r="C37" t="n">
-        <v>59.66425729352868</v>
+        <v>59.66425729352875</v>
       </c>
       <c r="D37" t="n">
-        <v>43.28562169110707</v>
+        <v>43.28562169110714</v>
       </c>
       <c r="E37" t="n">
-        <v>42.23337154688652</v>
+        <v>42.23337154688659</v>
       </c>
       <c r="F37" t="n">
-        <v>42.70029587507283</v>
+        <v>42.7002958750729</v>
       </c>
       <c r="G37" t="n">
-        <v>58.80366849407988</v>
+        <v>58.80366849407995</v>
       </c>
       <c r="H37" t="n">
-        <v>48.00008585466303</v>
+        <v>48.0000858546631</v>
       </c>
       <c r="I37" t="n">
-        <v>29.35309796263761</v>
+        <v>29.35309796263768</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.06738660256217</v>
+        <v>32.06738660256224</v>
       </c>
       <c r="S37" t="n">
-        <v>100.3312960010571</v>
+        <v>100.3312960010572</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8595643021595</v>
+        <v>121.8595643021596</v>
       </c>
       <c r="U37" t="n">
-        <v>176.0534392880738</v>
+        <v>176.0534392880739</v>
       </c>
       <c r="V37" t="n">
-        <v>149.8723988477538</v>
+        <v>149.8723988477539</v>
       </c>
       <c r="W37" t="n">
         <v>175.0392849183671</v>
@@ -3492,7 +3492,7 @@
         <v>120.6843869141702</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.5592546702378</v>
+        <v>111.5592546702379</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>281.8475515734311</v>
+        <v>281.8475515734312</v>
       </c>
       <c r="C38" t="n">
         <v>269.8588685311129</v>
       </c>
       <c r="D38" t="n">
-        <v>260.8401725756408</v>
+        <v>260.8401725756409</v>
       </c>
       <c r="E38" t="n">
         <v>282.5823101455464</v>
@@ -3517,7 +3517,7 @@
         <v>301.7541262335236</v>
       </c>
       <c r="G38" t="n">
-        <v>268.0813084299924</v>
+        <v>42.72737961638195</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>225.3539288136103</v>
       </c>
       <c r="W38" t="n">
         <v>250.6540282915672</v>
@@ -3571,7 +3571,7 @@
         <v>269.9542865243138</v>
       </c>
       <c r="Y38" t="n">
-        <v>281.3508843205125</v>
+        <v>281.3508843205126</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I39" t="n">
-        <v>60.66232013215034</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.4642624481282</v>
+        <v>73.46426244812827</v>
       </c>
       <c r="C40" t="n">
-        <v>59.66425729352868</v>
+        <v>59.66425729352875</v>
       </c>
       <c r="D40" t="n">
-        <v>43.28562169110707</v>
+        <v>43.28562169110714</v>
       </c>
       <c r="E40" t="n">
-        <v>42.23337154688652</v>
+        <v>42.23337154688659</v>
       </c>
       <c r="F40" t="n">
-        <v>42.70029587507283</v>
+        <v>42.7002958750729</v>
       </c>
       <c r="G40" t="n">
-        <v>58.80366849407988</v>
+        <v>58.80366849407995</v>
       </c>
       <c r="H40" t="n">
-        <v>48.00008585466303</v>
+        <v>48.0000858546631</v>
       </c>
       <c r="I40" t="n">
-        <v>29.35309796263761</v>
+        <v>29.35309796263768</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.06738660256217</v>
+        <v>32.06738660256224</v>
       </c>
       <c r="S40" t="n">
-        <v>100.3312960010571</v>
+        <v>100.3312960010572</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8595643021595</v>
+        <v>121.8595643021596</v>
       </c>
       <c r="U40" t="n">
-        <v>176.0534392880738</v>
+        <v>176.0534392880739</v>
       </c>
       <c r="V40" t="n">
-        <v>149.8723988477538</v>
+        <v>149.8723988477539</v>
       </c>
       <c r="W40" t="n">
         <v>175.0392849183671</v>
@@ -3729,7 +3729,7 @@
         <v>120.6843869141702</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.5592546702378</v>
+        <v>111.5592546702379</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>204.696859307871</v>
+        <v>387.5284713986121</v>
       </c>
       <c r="C41" t="n">
-        <v>375.5397883562938</v>
+        <v>375.5397883562939</v>
       </c>
       <c r="D41" t="n">
         <v>366.5210924008218</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>388.2632299707274</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.986362882841</v>
+        <v>186.4039440039975</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.0783428092183</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>249.7312941130561</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>331.0348486387911</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>356.334948116748</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>375.6352063494948</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>387.0318041456935</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S42" t="n">
         <v>147.4755605575067</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>26.94966847432987</v>
       </c>
       <c r="C43" t="n">
-        <v>165.3451771187096</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>7.796375298178926</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>148.3812157002538</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>227.5404841273404</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>281.7343591132546</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.720204743548</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.3653067393512</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>387.5284713986121</v>
       </c>
       <c r="C44" t="n">
-        <v>375.5397883562938</v>
+        <v>112.0434158195677</v>
       </c>
       <c r="D44" t="n">
-        <v>366.5210924008218</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>388.2632299707273</v>
+        <v>388.2632299707274</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.4350460587045</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.9863628828411</v>
       </c>
       <c r="H44" t="n">
-        <v>323.0067725051468</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>250.4289756445443</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>375.6352063494946</v>
+        <v>375.6352063494948</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>387.0318041456935</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.2368531361808</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H45" t="n">
         <v>96.9647737324037</v>
       </c>
       <c r="I45" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.1451822733091</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>148.3812157002537</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.1287178712934</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>281.7343591132546</v>
+        <v>281.7343591132548</v>
       </c>
       <c r="V46" t="n">
-        <v>73.15563857066614</v>
+        <v>255.5533186729348</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>446.1323839232255</v>
+        <v>618.9495827144294</v>
       </c>
       <c r="C2" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D2" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="E2" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F2" t="n">
-        <v>54.0878386066072</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119924</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119924</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119924</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>1967.873198029658</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>1743.514251760669</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>1743.514251760669</v>
       </c>
       <c r="V2" t="n">
-        <v>1233.717778865407</v>
+        <v>1406.53497765661</v>
       </c>
       <c r="W2" t="n">
-        <v>1233.717778865407</v>
+        <v>1406.53497765661</v>
       </c>
       <c r="X2" t="n">
-        <v>1233.717778865407</v>
+        <v>1406.53497765661</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1759234412445</v>
+        <v>1012.993122232449</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>792.6085166265278</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>630.9048438674826</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>345.0381969145658</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G3" t="n">
         <v>210.3443988644402</v>
@@ -4409,25 +4409,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>637.3366538315036</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M3" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4439,22 +4439,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.449152931943</v>
+        <v>1583.782142647105</v>
       </c>
       <c r="W3" t="n">
-        <v>1471.194773857131</v>
+        <v>1342.466273880415</v>
       </c>
       <c r="X3" t="n">
-        <v>1273.277785734925</v>
+        <v>1144.54928575821</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>952.0279594077888</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.9270998645308</v>
+        <v>516.129894852423</v>
       </c>
       <c r="C4" t="n">
-        <v>195.0961492734365</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F4" t="n">
         <v>42.02425610119923</v>
@@ -4527,13 +4527,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>287.9270998645308</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>287.9270998645308</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>287.9270998645308</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>872.2794333368408</v>
+        <v>483.3599123660419</v>
       </c>
       <c r="C5" t="n">
-        <v>872.2794333368408</v>
+        <v>101.4261536988492</v>
       </c>
       <c r="D5" t="n">
-        <v>872.2794333368408</v>
+        <v>101.4261536988492</v>
       </c>
       <c r="E5" t="n">
-        <v>872.2794333368408</v>
+        <v>101.4261536988492</v>
       </c>
       <c r="F5" t="n">
-        <v>458.1282426470112</v>
+        <v>91.31536704942363</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119923</v>
+        <v>79.25178454401566</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>79.25178454401566</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1648.353113333367</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U5" t="n">
-        <v>1648.353113333367</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V5" t="n">
-        <v>1648.353113333367</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W5" t="n">
-        <v>1648.353113333367</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="X5" t="n">
-        <v>1266.32297285486</v>
+        <v>877.403451884061</v>
       </c>
       <c r="Y5" t="n">
-        <v>1266.32297285486</v>
+        <v>877.403451884061</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>710.3492770987682</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>548.6456043397229</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>409.806967329935</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>262.7789573868062</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>128.0851593366806</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>128.0851593366806</v>
       </c>
       <c r="H6" t="n">
         <v>110.4065414111382</v>
@@ -4646,52 +4646,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
-        <v>331.768955194494</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M6" t="n">
-        <v>816.8023087047204</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N6" t="n">
-        <v>1328.067954827843</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
-        <v>1720.267905611993</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>2022.363824887691</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>1852.743432320892</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U6" t="n">
-        <v>1634.248639919202</v>
+        <v>1729.918525671012</v>
       </c>
       <c r="V6" t="n">
-        <v>1634.248639919202</v>
+        <v>1501.522903119346</v>
       </c>
       <c r="W6" t="n">
-        <v>1392.932771152512</v>
+        <v>1260.207034352656</v>
       </c>
       <c r="X6" t="n">
-        <v>1273.277785734925</v>
+        <v>1062.29004623045</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>869.7687198800292</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
         <v>42.02425610119923</v>
@@ -4755,22 +4755,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>423.4320601296483</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>423.4320601296483</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V7" t="n">
-        <v>423.4320601296483</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>423.4320601296483</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>423.4320601296483</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>950.0577211131547</v>
+        <v>1325.640809157293</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0577211131547</v>
+        <v>943.7070504900998</v>
       </c>
       <c r="D8" t="n">
-        <v>950.0577211131547</v>
+        <v>570.8830857173234</v>
       </c>
       <c r="E8" t="n">
-        <v>555.2720012192615</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F8" t="n">
-        <v>141.1208105294318</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W8" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X8" t="n">
-        <v>1344.101260631174</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y8" t="n">
-        <v>1344.101260631174</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>461.879904359699</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>357.3724088075689</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3443988644402</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4883,19 +4883,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
         <v>1799.116885784264</v>
@@ -4916,19 +4916,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1458.628076566943</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>942.4118326196563</v>
+        <v>1230.44914864973</v>
       </c>
       <c r="C11" t="n">
-        <v>667.2264778162828</v>
+        <v>955.2637938463567</v>
       </c>
       <c r="D11" t="n">
-        <v>667.2264778162828</v>
+        <v>955.2637938463567</v>
       </c>
       <c r="E11" t="n">
         <v>667.2264778162828</v>
@@ -5041,19 +5041,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5068,25 +5068,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2541.827283442364</v>
+        <v>2471.006928500868</v>
       </c>
       <c r="T11" t="n">
-        <v>2425.905620656698</v>
+        <v>2355.085265715202</v>
       </c>
       <c r="U11" t="n">
-        <v>2277.799552967706</v>
+        <v>2290.555132383093</v>
       </c>
       <c r="V11" t="n">
-        <v>2047.568682727467</v>
+        <v>2060.324262142853</v>
       </c>
       <c r="W11" t="n">
-        <v>1791.782156448887</v>
+        <v>1804.537735864273</v>
       </c>
       <c r="X11" t="n">
-        <v>1516.500419834199</v>
+        <v>1804.537735864273</v>
       </c>
       <c r="Y11" t="n">
-        <v>1229.706968273856</v>
+        <v>1517.74428430393</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>251.6973914949265</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L12" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.744201156453</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N12" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5147,13 +5147,13 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V12" t="n">
         <v>1712.033021862681</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.3719253394408</v>
+        <v>396.3719253394405</v>
       </c>
       <c r="C13" t="n">
-        <v>333.5043596649402</v>
+        <v>333.5043596649398</v>
       </c>
       <c r="D13" t="n">
-        <v>287.1808703565221</v>
+        <v>287.1808703565217</v>
       </c>
       <c r="E13" t="n">
-        <v>241.92025998166</v>
+        <v>241.9202599816596</v>
       </c>
       <c r="F13" t="n">
-        <v>196.1880088712562</v>
+        <v>196.1880088712558</v>
       </c>
       <c r="G13" t="n">
-        <v>134.1897248123605</v>
+        <v>134.1897248123601</v>
       </c>
       <c r="H13" t="n">
-        <v>83.10415049024948</v>
+        <v>83.10415049024903</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
@@ -5235,16 +5235,16 @@
         <v>1046.36460354125</v>
       </c>
       <c r="V13" t="n">
-        <v>892.3777029634922</v>
+        <v>892.377702963492</v>
       </c>
       <c r="W13" t="n">
-        <v>712.9697053447104</v>
+        <v>712.9697053447102</v>
       </c>
       <c r="X13" t="n">
-        <v>588.4656451039053</v>
+        <v>588.465645103905</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.1788901600016</v>
+        <v>473.1788901600012</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1172.834209536249</v>
+        <v>912.3695812382565</v>
       </c>
       <c r="C14" t="n">
-        <v>897.6488547328753</v>
+        <v>912.3695812382565</v>
       </c>
       <c r="D14" t="n">
-        <v>631.573293823918</v>
+        <v>646.2940203292992</v>
       </c>
       <c r="E14" t="n">
-        <v>631.573293823918</v>
+        <v>358.2567042992252</v>
       </c>
       <c r="F14" t="n">
-        <v>324.1705069979074</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G14" t="n">
-        <v>324.1705069979074</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
-        <v>102.0488045694298</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
@@ -5305,25 +5305,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2471.006928500868</v>
+        <v>2511.785032060964</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.032861919091</v>
+        <v>2395.863369275298</v>
       </c>
       <c r="U14" t="n">
-        <v>2220.926794230099</v>
+        <v>2247.757301586306</v>
       </c>
       <c r="V14" t="n">
-        <v>1990.695923989859</v>
+        <v>2017.526431346067</v>
       </c>
       <c r="W14" t="n">
-        <v>1734.909397711279</v>
+        <v>1761.739905067487</v>
       </c>
       <c r="X14" t="n">
-        <v>1459.627661096592</v>
+        <v>1486.458168452799</v>
       </c>
       <c r="Y14" t="n">
-        <v>1172.834209536249</v>
+        <v>1199.664716892456</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D15" t="n">
         <v>620.3170860732707</v>
@@ -5345,7 +5345,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5357,28 +5357,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321462</v>
+        <v>68.10001809715391</v>
       </c>
       <c r="K15" t="n">
-        <v>313.0144261414831</v>
+        <v>68.10001809715391</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8506509775792</v>
+        <v>477.8506509775797</v>
       </c>
       <c r="M15" t="n">
         <v>1014.14682775868</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547364</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
         <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>396.371925339441</v>
+        <v>396.3719253394411</v>
       </c>
       <c r="C16" t="n">
-        <v>333.5043596649404</v>
+        <v>333.5043596649406</v>
       </c>
       <c r="D16" t="n">
         <v>287.1808703565222</v>
@@ -5424,31 +5424,31 @@
         <v>241.9202599816601</v>
       </c>
       <c r="F16" t="n">
-        <v>196.1880088712564</v>
+        <v>196.1880088712563</v>
       </c>
       <c r="G16" t="n">
-        <v>134.1897248123605</v>
+        <v>134.1897248123606</v>
       </c>
       <c r="H16" t="n">
-        <v>83.10415049024948</v>
+        <v>83.10415049024949</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>108.6078364153127</v>
+        <v>108.6078364153129</v>
       </c>
       <c r="K16" t="n">
-        <v>266.5425231581221</v>
+        <v>266.5425231581223</v>
       </c>
       <c r="L16" t="n">
-        <v>496.9911056284412</v>
+        <v>496.9911056284413</v>
       </c>
       <c r="M16" t="n">
-        <v>746.1969269749311</v>
+        <v>746.1969269749313</v>
       </c>
       <c r="N16" t="n">
-        <v>995.1993758657823</v>
+        <v>995.1993758657824</v>
       </c>
       <c r="O16" t="n">
         <v>1222.261696869152</v>
@@ -5472,16 +5472,16 @@
         <v>1046.364603541251</v>
       </c>
       <c r="V16" t="n">
-        <v>892.3777029634922</v>
+        <v>892.3777029634924</v>
       </c>
       <c r="W16" t="n">
-        <v>712.9697053447105</v>
+        <v>712.9697053447107</v>
       </c>
       <c r="X16" t="n">
-        <v>588.4656451039054</v>
+        <v>588.4656451039057</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.1788901600017</v>
+        <v>473.1788901600018</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1059.202085623689</v>
+        <v>1693.3255498315</v>
       </c>
       <c r="C17" t="n">
-        <v>784.0167308203152</v>
+        <v>1418.140195028127</v>
       </c>
       <c r="D17" t="n">
-        <v>647.8610070203463</v>
+        <v>1152.06463411917</v>
       </c>
       <c r="E17" t="n">
-        <v>359.8236909902722</v>
+        <v>864.0273180890956</v>
       </c>
       <c r="F17" t="n">
-        <v>359.8236909902722</v>
+        <v>556.624531263085</v>
       </c>
       <c r="G17" t="n">
-        <v>50.85391747321462</v>
+        <v>247.6547577460274</v>
       </c>
       <c r="H17" t="n">
         <v>50.85391747321462</v>
@@ -5548,19 +5548,19 @@
         <v>2542.695873660731</v>
       </c>
       <c r="U17" t="n">
-        <v>2394.589805971739</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V17" t="n">
-        <v>2164.358935731499</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W17" t="n">
-        <v>1908.572409452919</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X17" t="n">
-        <v>1633.290672838232</v>
+        <v>2267.414137046043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1346.497221277889</v>
+        <v>1980.620685485701</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C18" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H18" t="n">
         <v>112.1289883137699</v>
@@ -5612,28 +5612,28 @@
         <v>2263.283082167001</v>
       </c>
       <c r="P18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T18" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X18" t="n">
         <v>1272.800164973786</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>396.3719253394408</v>
+        <v>396.3719253394407</v>
       </c>
       <c r="C19" t="n">
-        <v>333.5043596649402</v>
+        <v>333.5043596649401</v>
       </c>
       <c r="D19" t="n">
-        <v>287.1808703565221</v>
+        <v>287.180870356522</v>
       </c>
       <c r="E19" t="n">
         <v>241.92025998166</v>
@@ -5673,19 +5673,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J19" t="n">
-        <v>108.6078364153128</v>
+        <v>108.6078364153129</v>
       </c>
       <c r="K19" t="n">
-        <v>266.5425231581222</v>
+        <v>266.5425231581223</v>
       </c>
       <c r="L19" t="n">
-        <v>496.9911056284413</v>
+        <v>496.9911056284415</v>
       </c>
       <c r="M19" t="n">
-        <v>746.1969269749312</v>
+        <v>746.1969269749313</v>
       </c>
       <c r="N19" t="n">
-        <v>995.1993758657824</v>
+        <v>995.1993758657826</v>
       </c>
       <c r="O19" t="n">
         <v>1222.261696869152</v>
@@ -5700,25 +5700,25 @@
         <v>1456.433490171524</v>
       </c>
       <c r="S19" t="n">
-        <v>1352.488107620733</v>
+        <v>1352.488107620732</v>
       </c>
       <c r="T19" t="n">
         <v>1226.796999513271</v>
       </c>
       <c r="U19" t="n">
-        <v>1046.364603541251</v>
+        <v>1046.36460354125</v>
       </c>
       <c r="V19" t="n">
-        <v>892.3777029634922</v>
+        <v>892.3777029634921</v>
       </c>
       <c r="W19" t="n">
-        <v>712.9697053447104</v>
+        <v>712.9697053447103</v>
       </c>
       <c r="X19" t="n">
-        <v>588.4656451039053</v>
+        <v>588.4656451039052</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.1788901600016</v>
+        <v>473.1788901600014</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1121.639322440034</v>
+        <v>1496.524709558688</v>
       </c>
       <c r="C20" t="n">
-        <v>846.4539676366601</v>
+        <v>1221.339354755314</v>
       </c>
       <c r="D20" t="n">
-        <v>580.3784067277028</v>
+        <v>955.2637938463567</v>
       </c>
       <c r="E20" t="n">
-        <v>580.3784067277028</v>
+        <v>667.2264778162828</v>
       </c>
       <c r="F20" t="n">
-        <v>272.9756199016922</v>
+        <v>359.8236909902722</v>
       </c>
       <c r="G20" t="n">
-        <v>272.9756199016922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H20" t="n">
         <v>50.85391747321462</v>
@@ -5752,19 +5752,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532637</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5779,25 +5779,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.006928500868</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2355.085265715202</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>2355.085265715202</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>2124.854395474963</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W20" t="n">
-        <v>1971.009646269264</v>
+        <v>2345.895033387918</v>
       </c>
       <c r="X20" t="n">
-        <v>1695.727909654576</v>
+        <v>2070.613296773231</v>
       </c>
       <c r="Y20" t="n">
-        <v>1408.934458094234</v>
+        <v>1783.819845212888</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G21" t="n">
         <v>210.0732042050868</v>
@@ -5834,43 +5834,43 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
-        <v>392.3832078845234</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L21" t="n">
         <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.032071547364</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
         <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S21" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X21" t="n">
         <v>1272.800164973786</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396.3719253394408</v>
+        <v>396.3719253394407</v>
       </c>
       <c r="C22" t="n">
-        <v>333.5043596649402</v>
+        <v>333.5043596649401</v>
       </c>
       <c r="D22" t="n">
-        <v>287.1808703565221</v>
+        <v>287.180870356522</v>
       </c>
       <c r="E22" t="n">
         <v>241.92025998166</v>
@@ -5904,7 +5904,7 @@
         <v>134.1897248123605</v>
       </c>
       <c r="H22" t="n">
-        <v>83.10415049024948</v>
+        <v>83.10415049024947</v>
       </c>
       <c r="I22" t="n">
         <v>50.85391747321462</v>
@@ -5922,10 +5922,10 @@
         <v>746.1969269749312</v>
       </c>
       <c r="N22" t="n">
-        <v>995.1993758657824</v>
+        <v>995.1993758657823</v>
       </c>
       <c r="O22" t="n">
-        <v>1222.261696869152</v>
+        <v>1222.261696869151</v>
       </c>
       <c r="P22" t="n">
         <v>1410.368672358094</v>
@@ -5937,25 +5937,25 @@
         <v>1456.433490171524</v>
       </c>
       <c r="S22" t="n">
-        <v>1352.488107620733</v>
+        <v>1352.488107620732</v>
       </c>
       <c r="T22" t="n">
         <v>1226.796999513271</v>
       </c>
       <c r="U22" t="n">
-        <v>1046.364603541251</v>
+        <v>1046.36460354125</v>
       </c>
       <c r="V22" t="n">
-        <v>892.3777029634922</v>
+        <v>892.3777029634921</v>
       </c>
       <c r="W22" t="n">
-        <v>712.9697053447104</v>
+        <v>712.9697053447103</v>
       </c>
       <c r="X22" t="n">
-        <v>588.4656451039053</v>
+        <v>588.4656451039052</v>
       </c>
       <c r="Y22" t="n">
-        <v>473.1788901600016</v>
+        <v>473.1788901600014</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1769.383341487711</v>
+        <v>1496.524709558688</v>
       </c>
       <c r="C23" t="n">
-        <v>1494.197986684338</v>
+        <v>1221.339354755314</v>
       </c>
       <c r="D23" t="n">
-        <v>1228.12242577538</v>
+        <v>955.2637938463567</v>
       </c>
       <c r="E23" t="n">
-        <v>940.0851097453062</v>
+        <v>667.2264778162828</v>
       </c>
       <c r="F23" t="n">
-        <v>632.6823229192956</v>
+        <v>359.8236909902722</v>
       </c>
       <c r="G23" t="n">
-        <v>323.712549402238</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H23" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I23" t="n">
         <v>50.85391747321462</v>
@@ -6025,16 +6025,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="V23" t="n">
-        <v>2312.465003420491</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W23" t="n">
-        <v>2056.678477141911</v>
+        <v>2345.895033387918</v>
       </c>
       <c r="X23" t="n">
-        <v>2056.678477141911</v>
+        <v>2070.613296773231</v>
       </c>
       <c r="Y23" t="n">
-        <v>2056.678477141911</v>
+        <v>1783.819845212888</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C24" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D24" t="n">
         <v>620.3170860732707</v>
@@ -6056,7 +6056,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F24" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G24" t="n">
         <v>210.0732042050868</v>
@@ -6068,28 +6068,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K24" t="n">
-        <v>251.697391494926</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L24" t="n">
-        <v>661.4480243753518</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.744201156452</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N24" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O24" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P24" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R24" t="n">
         <v>2495.728130619192</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1447.642370114719</v>
+        <v>396.3719253394407</v>
       </c>
       <c r="C25" t="n">
-        <v>1384.774804440218</v>
+        <v>333.5043596649401</v>
       </c>
       <c r="D25" t="n">
-        <v>1338.4513151318</v>
+        <v>287.180870356522</v>
       </c>
       <c r="E25" t="n">
-        <v>1293.190704756938</v>
+        <v>241.92025998166</v>
       </c>
       <c r="F25" t="n">
-        <v>1247.458453646534</v>
+        <v>196.1880088712562</v>
       </c>
       <c r="G25" t="n">
-        <v>1185.460169587639</v>
+        <v>134.1897248123605</v>
       </c>
       <c r="H25" t="n">
-        <v>1134.374595265527</v>
+        <v>83.10415049024947</v>
       </c>
       <c r="I25" t="n">
-        <v>1102.124362248493</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J25" t="n">
-        <v>1159.878281190591</v>
+        <v>108.6078364153128</v>
       </c>
       <c r="K25" t="n">
-        <v>1317.8129679334</v>
+        <v>266.5425231581222</v>
       </c>
       <c r="L25" t="n">
-        <v>1548.261550403719</v>
+        <v>496.9911056284413</v>
       </c>
       <c r="M25" t="n">
-        <v>1797.467371750209</v>
+        <v>746.1969269749312</v>
       </c>
       <c r="N25" t="n">
-        <v>2046.469820641061</v>
+        <v>995.1993758657823</v>
       </c>
       <c r="O25" t="n">
-        <v>2273.53214164443</v>
+        <v>1222.261696869152</v>
       </c>
       <c r="P25" t="n">
-        <v>2461.639117133373</v>
+        <v>1410.368672358094</v>
       </c>
       <c r="Q25" t="n">
-        <v>2542.695873660731</v>
+        <v>1491.425428885453</v>
       </c>
       <c r="R25" t="n">
-        <v>2507.703934946802</v>
+        <v>1456.433490171524</v>
       </c>
       <c r="S25" t="n">
-        <v>2403.75855239601</v>
+        <v>1352.488107620732</v>
       </c>
       <c r="T25" t="n">
-        <v>2278.067444288549</v>
+        <v>1226.796999513271</v>
       </c>
       <c r="U25" t="n">
-        <v>2097.635048316528</v>
+        <v>1046.36460354125</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.64814773877</v>
+        <v>892.3777029634921</v>
       </c>
       <c r="W25" t="n">
-        <v>1764.240150119988</v>
+        <v>712.9697053447103</v>
       </c>
       <c r="X25" t="n">
-        <v>1639.736089879183</v>
+        <v>588.4656451039052</v>
       </c>
       <c r="Y25" t="n">
-        <v>1524.449334935279</v>
+        <v>473.1788901600014</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1503.765738174423</v>
+        <v>1294.97928198184</v>
       </c>
       <c r="C26" t="n">
-        <v>1228.58038337105</v>
+        <v>1019.793927178467</v>
       </c>
       <c r="D26" t="n">
-        <v>1228.58038337105</v>
+        <v>753.7183662695095</v>
       </c>
       <c r="E26" t="n">
-        <v>940.5430673409757</v>
+        <v>465.6810502394355</v>
       </c>
       <c r="F26" t="n">
-        <v>633.1402805149651</v>
+        <v>158.278263413425</v>
       </c>
       <c r="G26" t="n">
-        <v>324.1705069979075</v>
+        <v>158.278263413425</v>
       </c>
       <c r="H26" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I26" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J26" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K26" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L26" t="n">
         <v>850.7433998907119</v>
@@ -6253,25 +6253,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S26" t="n">
-        <v>2542.695873660731</v>
+        <v>2471.006928500868</v>
       </c>
       <c r="T26" t="n">
-        <v>2542.695873660731</v>
+        <v>2355.085265715203</v>
       </c>
       <c r="U26" t="n">
-        <v>2542.695873660731</v>
+        <v>2355.085265715203</v>
       </c>
       <c r="V26" t="n">
-        <v>2542.695873660731</v>
+        <v>2124.854395474963</v>
       </c>
       <c r="W26" t="n">
-        <v>2286.909347382151</v>
+        <v>1869.067869196383</v>
       </c>
       <c r="X26" t="n">
-        <v>2077.854325388966</v>
+        <v>1869.067869196383</v>
       </c>
       <c r="Y26" t="n">
-        <v>1791.060873828623</v>
+        <v>1582.27441763604</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C27" t="n">
-        <v>759.1557230830585</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D27" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E27" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F27" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G27" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050872</v>
       </c>
       <c r="H27" t="n">
         <v>112.1289883137699</v>
@@ -6332,19 +6332,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S27" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T27" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U27" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W27" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X27" t="n">
         <v>1272.800164973786</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>396.371925339441</v>
+        <v>396.3719253394406</v>
       </c>
       <c r="C28" t="n">
-        <v>333.5043596649404</v>
+        <v>333.50435966494</v>
       </c>
       <c r="D28" t="n">
-        <v>287.1808703565222</v>
+        <v>287.1808703565219</v>
       </c>
       <c r="E28" t="n">
-        <v>241.9202599816601</v>
+        <v>241.9202599816599</v>
       </c>
       <c r="F28" t="n">
-        <v>196.1880088712563</v>
+        <v>196.1880088712562</v>
       </c>
       <c r="G28" t="n">
-        <v>134.1897248123606</v>
+        <v>134.1897248123605</v>
       </c>
       <c r="H28" t="n">
-        <v>83.10415049024949</v>
+        <v>83.10415049024944</v>
       </c>
       <c r="I28" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J28" t="n">
-        <v>108.6078364153128</v>
+        <v>108.6078364153129</v>
       </c>
       <c r="K28" t="n">
-        <v>266.5425231581222</v>
+        <v>266.5425231581223</v>
       </c>
       <c r="L28" t="n">
-        <v>496.9911056284412</v>
+        <v>496.9911056284415</v>
       </c>
       <c r="M28" t="n">
-        <v>746.1969269749311</v>
+        <v>746.1969269749314</v>
       </c>
       <c r="N28" t="n">
-        <v>995.1993758657821</v>
+        <v>995.1993758657826</v>
       </c>
       <c r="O28" t="n">
-        <v>1222.261696869151</v>
+        <v>1222.261696869152</v>
       </c>
       <c r="P28" t="n">
-        <v>1410.368672358094</v>
+        <v>1410.368672358095</v>
       </c>
       <c r="Q28" t="n">
-        <v>1491.425428885452</v>
+        <v>1491.425428885453</v>
       </c>
       <c r="R28" t="n">
-        <v>1456.433490171524</v>
+        <v>1456.433490171525</v>
       </c>
       <c r="S28" t="n">
-        <v>1352.488107620732</v>
+        <v>1352.488107620733</v>
       </c>
       <c r="T28" t="n">
-        <v>1226.796999513271</v>
+        <v>1226.796999513272</v>
       </c>
       <c r="U28" t="n">
-        <v>1046.36460354125</v>
+        <v>1046.364603541251</v>
       </c>
       <c r="V28" t="n">
-        <v>892.3777029634917</v>
+        <v>892.377702963493</v>
       </c>
       <c r="W28" t="n">
-        <v>712.96970534471</v>
+        <v>712.9697053447113</v>
       </c>
       <c r="X28" t="n">
-        <v>588.4656451039054</v>
+        <v>588.4656451039062</v>
       </c>
       <c r="Y28" t="n">
-        <v>473.1788901600017</v>
+        <v>473.1788901600012</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1019.697545367152</v>
+        <v>1274.808276118027</v>
       </c>
       <c r="C29" t="n">
-        <v>744.5121905637786</v>
+        <v>1274.808276118027</v>
       </c>
       <c r="D29" t="n">
-        <v>478.4366296548213</v>
+        <v>1008.73271520907</v>
       </c>
       <c r="E29" t="n">
-        <v>272.9756199016922</v>
+        <v>720.6953991789956</v>
       </c>
       <c r="F29" t="n">
-        <v>272.9756199016922</v>
+        <v>413.292612352985</v>
       </c>
       <c r="G29" t="n">
-        <v>272.9756199016922</v>
+        <v>272.9756199016921</v>
       </c>
       <c r="H29" t="n">
         <v>50.85391747321462</v>
@@ -6493,22 +6493,22 @@
         <v>2471.006928500868</v>
       </c>
       <c r="T29" t="n">
-        <v>2355.085265715202</v>
+        <v>2471.006928500868</v>
       </c>
       <c r="U29" t="n">
-        <v>2355.085265715202</v>
+        <v>2322.900860811876</v>
       </c>
       <c r="V29" t="n">
-        <v>2124.854395474963</v>
+        <v>2092.669990571637</v>
       </c>
       <c r="W29" t="n">
-        <v>1869.067869196383</v>
+        <v>1836.883464293057</v>
       </c>
       <c r="X29" t="n">
-        <v>1593.786132581695</v>
+        <v>1561.60172767837</v>
       </c>
       <c r="Y29" t="n">
-        <v>1306.992681021352</v>
+        <v>1274.808276118027</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C30" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D30" t="n">
         <v>620.3170860732707</v>
@@ -6530,7 +6530,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F30" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G30" t="n">
         <v>210.0732042050868</v>
@@ -6542,28 +6542,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J30" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K30" t="n">
-        <v>251.697391494926</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L30" t="n">
-        <v>661.4480243753518</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.744201156452</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N30" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O30" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P30" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R30" t="n">
         <v>2495.728130619192</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>396.3719253394409</v>
+        <v>396.3719253394406</v>
       </c>
       <c r="C31" t="n">
-        <v>333.5043596649403</v>
+        <v>333.50435966494</v>
       </c>
       <c r="D31" t="n">
-        <v>287.1808703565221</v>
+        <v>287.1808703565219</v>
       </c>
       <c r="E31" t="n">
-        <v>241.9202599816601</v>
+        <v>241.9202599816599</v>
       </c>
       <c r="F31" t="n">
-        <v>196.1880088712563</v>
+        <v>196.1880088712562</v>
       </c>
       <c r="G31" t="n">
         <v>134.1897248123605</v>
       </c>
       <c r="H31" t="n">
-        <v>83.10415049024951</v>
+        <v>83.10415049024948</v>
       </c>
       <c r="I31" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J31" t="n">
-        <v>108.6078364153128</v>
+        <v>108.6078364153129</v>
       </c>
       <c r="K31" t="n">
-        <v>266.5425231581222</v>
+        <v>266.5425231581223</v>
       </c>
       <c r="L31" t="n">
-        <v>496.9911056284412</v>
+        <v>496.9911056284415</v>
       </c>
       <c r="M31" t="n">
-        <v>746.1969269749312</v>
+        <v>746.1969269749311</v>
       </c>
       <c r="N31" t="n">
         <v>995.1993758657823</v>
@@ -6648,25 +6648,25 @@
         <v>1456.433490171524</v>
       </c>
       <c r="S31" t="n">
-        <v>1352.488107620733</v>
+        <v>1352.488107620732</v>
       </c>
       <c r="T31" t="n">
         <v>1226.796999513271</v>
       </c>
       <c r="U31" t="n">
-        <v>1046.364603541251</v>
+        <v>1046.36460354125</v>
       </c>
       <c r="V31" t="n">
-        <v>892.3777029634923</v>
+        <v>892.3777029634917</v>
       </c>
       <c r="W31" t="n">
-        <v>712.9697053447105</v>
+        <v>712.9697053447101</v>
       </c>
       <c r="X31" t="n">
-        <v>588.4656451039054</v>
+        <v>588.465645103905</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.1788901600016</v>
+        <v>473.1788901600012</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1174.249961877093</v>
+        <v>1220.311348889584</v>
       </c>
       <c r="C32" t="n">
-        <v>1174.249961877093</v>
+        <v>947.7266332015909</v>
       </c>
       <c r="D32" t="n">
-        <v>910.7750400835164</v>
+        <v>947.4618765002149</v>
       </c>
       <c r="E32" t="n">
-        <v>625.338363168823</v>
+        <v>662.0251995855215</v>
       </c>
       <c r="F32" t="n">
-        <v>625.338363168823</v>
+        <v>357.2230518748916</v>
       </c>
       <c r="G32" t="n">
-        <v>318.969228767146</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H32" t="n">
-        <v>99.44816545404915</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I32" t="n">
         <v>50.85391747321461</v>
@@ -6727,25 +6727,25 @@
         <v>2542.69587366073</v>
       </c>
       <c r="S32" t="n">
-        <v>2482.779841392828</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T32" t="n">
-        <v>2369.458817722544</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U32" t="n">
-        <v>2223.953389148932</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="V32" t="n">
-        <v>1996.323158024074</v>
+        <v>2315.065642535872</v>
       </c>
       <c r="W32" t="n">
-        <v>1743.137270860874</v>
+        <v>2061.879755372672</v>
       </c>
       <c r="X32" t="n">
-        <v>1743.137270860874</v>
+        <v>1789.198657873365</v>
       </c>
       <c r="Y32" t="n">
-        <v>1458.944458415912</v>
+        <v>1505.005845428403</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J33" t="n">
-        <v>50.85391747321461</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K33" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L33" t="n">
-        <v>722.7650590219088</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M33" t="n">
-        <v>1259.061235803009</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N33" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O33" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P33" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.69587366073</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>378.1674515317759</v>
+        <v>378.1674515317764</v>
       </c>
       <c r="C34" t="n">
-        <v>317.900524972656</v>
+        <v>317.9005249726564</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1776747796185</v>
+        <v>274.1776747796189</v>
       </c>
       <c r="E34" t="n">
-        <v>231.5177035201372</v>
+        <v>231.5177035201375</v>
       </c>
       <c r="F34" t="n">
-        <v>188.3860915251141</v>
+        <v>188.3860915251144</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9884465815991</v>
+        <v>128.9884465815992</v>
       </c>
       <c r="H34" t="n">
-        <v>80.50351137486876</v>
+        <v>80.50351137486884</v>
       </c>
       <c r="I34" t="n">
         <v>50.85391747321461</v>
       </c>
       <c r="J34" t="n">
-        <v>111.1567228122975</v>
+        <v>111.1567228122974</v>
       </c>
       <c r="K34" t="n">
-        <v>271.6402959520915</v>
+        <v>271.6402959520913</v>
       </c>
       <c r="L34" t="n">
-        <v>504.6377648193952</v>
+        <v>504.637764819395</v>
       </c>
       <c r="M34" t="n">
-        <v>756.3924725628697</v>
+        <v>756.3924725628694</v>
       </c>
       <c r="N34" t="n">
-        <v>945.9424908287372</v>
+        <v>1007.943807850705</v>
       </c>
       <c r="O34" t="n">
-        <v>1175.553698229091</v>
+        <v>1237.555015251059</v>
       </c>
       <c r="P34" t="n">
-        <v>1366.209560115019</v>
+        <v>1366.20956011502</v>
       </c>
       <c r="Q34" t="n">
-        <v>1449.815203039361</v>
+        <v>1449.815203039363</v>
       </c>
       <c r="R34" t="n">
-        <v>1417.423903440814</v>
+        <v>1417.423903440815</v>
       </c>
       <c r="S34" t="n">
-        <v>1316.079160005403</v>
+        <v>1316.079160005404</v>
       </c>
       <c r="T34" t="n">
-        <v>1192.988691013322</v>
+        <v>1192.988691013323</v>
       </c>
       <c r="U34" t="n">
-        <v>1015.156934156682</v>
+        <v>1015.156934156683</v>
       </c>
       <c r="V34" t="n">
-        <v>863.7706726943045</v>
+        <v>863.7706726943053</v>
       </c>
       <c r="W34" t="n">
-        <v>686.9633141909034</v>
+        <v>686.9633141909042</v>
       </c>
       <c r="X34" t="n">
-        <v>565.0598930654789</v>
+        <v>565.0598930654796</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.3737772369559</v>
+        <v>452.3737772369564</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1446.834677565086</v>
+        <v>1483.521513981784</v>
       </c>
       <c r="C35" t="n">
-        <v>1174.249961877093</v>
+        <v>1210.936798293792</v>
       </c>
       <c r="D35" t="n">
-        <v>910.7750400835164</v>
+        <v>947.4618765002149</v>
       </c>
       <c r="E35" t="n">
-        <v>625.338363168823</v>
+        <v>662.0251995855215</v>
       </c>
       <c r="F35" t="n">
-        <v>625.338363168823</v>
+        <v>357.2230518748916</v>
       </c>
       <c r="G35" t="n">
-        <v>318.9692287671461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H35" t="n">
-        <v>99.44816545404916</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
         <v>50.85391747321462</v>
@@ -6973,16 +6973,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="V35" t="n">
-        <v>2315.065642535872</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W35" t="n">
-        <v>2061.879755372673</v>
+        <v>2325.089920464873</v>
       </c>
       <c r="X35" t="n">
-        <v>1789.198657873366</v>
+        <v>2052.408822965566</v>
       </c>
       <c r="Y35" t="n">
-        <v>1505.005845428404</v>
+        <v>1768.216010520604</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C36" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D36" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G36" t="n">
         <v>210.0732042050868</v>
@@ -7028,13 +7028,13 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N36" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O36" t="n">
-        <v>2342.651863910041</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P36" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q36" t="n">
         <v>2542.695873660731</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>378.1674515317759</v>
+        <v>378.1674515317764</v>
       </c>
       <c r="C37" t="n">
-        <v>317.900524972656</v>
+        <v>317.9005249726564</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1776747796185</v>
+        <v>274.1776747796189</v>
       </c>
       <c r="E37" t="n">
-        <v>231.5177035201372</v>
+        <v>231.5177035201375</v>
       </c>
       <c r="F37" t="n">
-        <v>188.3860915251141</v>
+        <v>188.3860915251144</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9884465815991</v>
+        <v>128.9884465815992</v>
       </c>
       <c r="H37" t="n">
-        <v>80.50351137486876</v>
+        <v>80.50351137486885</v>
       </c>
       <c r="I37" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J37" t="n">
-        <v>111.1567228122975</v>
+        <v>111.1567228122974</v>
       </c>
       <c r="K37" t="n">
-        <v>271.6402959520915</v>
+        <v>271.6402959520913</v>
       </c>
       <c r="L37" t="n">
-        <v>504.6377648193952</v>
+        <v>504.637764819395</v>
       </c>
       <c r="M37" t="n">
-        <v>694.3911555409014</v>
+        <v>756.3924725628694</v>
       </c>
       <c r="N37" t="n">
-        <v>945.9424908287372</v>
+        <v>1007.943807850705</v>
       </c>
       <c r="O37" t="n">
-        <v>1175.553698229091</v>
+        <v>1237.555015251059</v>
       </c>
       <c r="P37" t="n">
-        <v>1366.209560115019</v>
+        <v>1366.20956011502</v>
       </c>
       <c r="Q37" t="n">
-        <v>1449.815203039361</v>
+        <v>1449.815203039363</v>
       </c>
       <c r="R37" t="n">
-        <v>1417.423903440814</v>
+        <v>1417.423903440815</v>
       </c>
       <c r="S37" t="n">
-        <v>1316.079160005403</v>
+        <v>1316.079160005404</v>
       </c>
       <c r="T37" t="n">
-        <v>1192.988691013322</v>
+        <v>1192.988691013323</v>
       </c>
       <c r="U37" t="n">
-        <v>1015.156934156682</v>
+        <v>1015.156934156683</v>
       </c>
       <c r="V37" t="n">
-        <v>863.7706726943045</v>
+        <v>863.7706726943053</v>
       </c>
       <c r="W37" t="n">
-        <v>686.9633141909034</v>
+        <v>686.9633141909042</v>
       </c>
       <c r="X37" t="n">
-        <v>565.0598930654789</v>
+        <v>565.0598930654796</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.3737772369559</v>
+        <v>452.3737772369564</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1447.941580014443</v>
+        <v>1220.311348889584</v>
       </c>
       <c r="C38" t="n">
-        <v>1175.35686432645</v>
+        <v>947.7266332015913</v>
       </c>
       <c r="D38" t="n">
-        <v>911.8819425328736</v>
+        <v>684.2517114080147</v>
       </c>
       <c r="E38" t="n">
-        <v>626.4452656181802</v>
+        <v>398.8150344933213</v>
       </c>
       <c r="F38" t="n">
-        <v>321.6431179075503</v>
+        <v>94.01288678269134</v>
       </c>
       <c r="G38" t="n">
         <v>50.85391747321462</v>
@@ -7174,19 +7174,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J38" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K38" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L38" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M38" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O38" t="n">
         <v>2124.896977382889</v>
@@ -7210,16 +7210,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="V38" t="n">
-        <v>2542.695873660731</v>
+        <v>2315.065642535872</v>
       </c>
       <c r="W38" t="n">
-        <v>2289.509986497531</v>
+        <v>2061.879755372673</v>
       </c>
       <c r="X38" t="n">
-        <v>2016.828888998225</v>
+        <v>1789.198657873366</v>
       </c>
       <c r="Y38" t="n">
-        <v>1732.636076553262</v>
+        <v>1505.005845428404</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>112.1289883137705</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321523</v>
       </c>
       <c r="J39" t="n">
         <v>50.85391747321462</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>378.1674515317759</v>
+        <v>378.1674515317764</v>
       </c>
       <c r="C40" t="n">
-        <v>317.900524972656</v>
+        <v>317.9005249726564</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1776747796185</v>
+        <v>274.1776747796189</v>
       </c>
       <c r="E40" t="n">
-        <v>231.5177035201372</v>
+        <v>231.5177035201375</v>
       </c>
       <c r="F40" t="n">
-        <v>188.3860915251141</v>
+        <v>188.3860915251144</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9884465815991</v>
+        <v>128.9884465815992</v>
       </c>
       <c r="H40" t="n">
-        <v>80.50351137486876</v>
+        <v>80.50351137486885</v>
       </c>
       <c r="I40" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J40" t="n">
-        <v>111.1567228122975</v>
+        <v>111.1567228122974</v>
       </c>
       <c r="K40" t="n">
-        <v>271.6402959520915</v>
+        <v>271.6402959520913</v>
       </c>
       <c r="L40" t="n">
-        <v>442.6364477974269</v>
+        <v>442.6364477974284</v>
       </c>
       <c r="M40" t="n">
-        <v>694.3911555409014</v>
+        <v>694.3911555409029</v>
       </c>
       <c r="N40" t="n">
-        <v>945.9424908287372</v>
+        <v>945.9424908287385</v>
       </c>
       <c r="O40" t="n">
-        <v>1175.553698229091</v>
+        <v>1175.553698229092</v>
       </c>
       <c r="P40" t="n">
-        <v>1366.209560115019</v>
+        <v>1366.20956011502</v>
       </c>
       <c r="Q40" t="n">
-        <v>1449.815203039361</v>
+        <v>1449.815203039363</v>
       </c>
       <c r="R40" t="n">
-        <v>1417.423903440814</v>
+        <v>1417.423903440815</v>
       </c>
       <c r="S40" t="n">
-        <v>1316.079160005403</v>
+        <v>1316.079160005404</v>
       </c>
       <c r="T40" t="n">
-        <v>1192.988691013322</v>
+        <v>1192.988691013323</v>
       </c>
       <c r="U40" t="n">
-        <v>1015.156934156682</v>
+        <v>1015.156934156683</v>
       </c>
       <c r="V40" t="n">
-        <v>863.7706726943045</v>
+        <v>863.7706726943053</v>
       </c>
       <c r="W40" t="n">
-        <v>686.9633141909034</v>
+        <v>686.9633141909042</v>
       </c>
       <c r="X40" t="n">
-        <v>565.0598930654789</v>
+        <v>565.0598930654796</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.3737772369559</v>
+        <v>452.3737772369564</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1213.527900947918</v>
+        <v>1380.882255586185</v>
       </c>
       <c r="C41" t="n">
-        <v>834.1947813961064</v>
+        <v>1001.549136034373</v>
       </c>
       <c r="D41" t="n">
-        <v>463.9714557387106</v>
+        <v>631.3258103769772</v>
       </c>
       <c r="E41" t="n">
-        <v>463.9714557387106</v>
+        <v>239.1407295984646</v>
       </c>
       <c r="F41" t="n">
-        <v>463.9714557387106</v>
+        <v>239.1407295984646</v>
       </c>
       <c r="G41" t="n">
         <v>50.85391747321462</v>
@@ -7411,13 +7411,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L41" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
@@ -7438,25 +7438,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2366.85916375243</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.85916375243</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U41" t="n">
-        <v>2114.605331314999</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V41" t="n">
-        <v>1780.226696326321</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W41" t="n">
-        <v>1420.292405299303</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X41" t="n">
-        <v>1420.292405299303</v>
+        <v>2163.266372297605</v>
       </c>
       <c r="Y41" t="n">
-        <v>1420.292405299303</v>
+        <v>1772.325155988824</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>68.10001809715379</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L42" t="n">
-        <v>477.8506509775796</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M42" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O42" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P42" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R42" t="n">
         <v>2495.728130619192</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>225.7443744599707</v>
+        <v>200.7339333320569</v>
       </c>
       <c r="C43" t="n">
-        <v>58.72904403703171</v>
+        <v>200.7339333320569</v>
       </c>
       <c r="D43" t="n">
-        <v>50.85391747321462</v>
+        <v>200.7339333320569</v>
       </c>
       <c r="E43" t="n">
-        <v>50.85391747321462</v>
+        <v>200.7339333320569</v>
       </c>
       <c r="F43" t="n">
         <v>50.85391747321462</v>
@@ -7572,49 +7572,49 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7133799860795</v>
+        <v>106.7133799860794</v>
       </c>
       <c r="L43" t="n">
-        <v>235.0867382264541</v>
+        <v>235.0867382264539</v>
       </c>
       <c r="M43" t="n">
-        <v>382.2173353429996</v>
+        <v>382.2173353429993</v>
       </c>
       <c r="N43" t="n">
-        <v>529.1445600039062</v>
+        <v>529.1445600039058</v>
       </c>
       <c r="O43" t="n">
-        <v>654.131656777331</v>
+        <v>654.1316567773305</v>
       </c>
       <c r="P43" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="Q43" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="R43" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="S43" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="T43" t="n">
-        <v>510.32453518043</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="U43" t="n">
-        <v>225.7443744599707</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="V43" t="n">
-        <v>225.7443744599707</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="W43" t="n">
-        <v>225.7443744599707</v>
+        <v>456.6076456691085</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7443744599707</v>
+        <v>227.9558206798648</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.7443744599707</v>
+        <v>227.9558206798648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1518.864910637851</v>
+        <v>1380.882255586185</v>
       </c>
       <c r="C44" t="n">
-        <v>1139.531791086039</v>
+        <v>1267.707088091672</v>
       </c>
       <c r="D44" t="n">
-        <v>769.308465428643</v>
+        <v>1267.707088091672</v>
       </c>
       <c r="E44" t="n">
-        <v>377.1233846501306</v>
+        <v>875.5220073131597</v>
       </c>
       <c r="F44" t="n">
-        <v>377.1233846501306</v>
+        <v>463.9714557387107</v>
       </c>
       <c r="G44" t="n">
-        <v>377.1233846501306</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H44" t="n">
         <v>50.85391747321462</v>
@@ -7648,19 +7648,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M44" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N44" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O44" t="n">
         <v>2124.896977382889</v>
@@ -7684,16 +7684,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="V44" t="n">
-        <v>2289.737312403615</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.737312403615</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X44" t="n">
-        <v>1910.307811040489</v>
+        <v>2163.266372297605</v>
       </c>
       <c r="Y44" t="n">
-        <v>1910.307811040489</v>
+        <v>1772.325155988824</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>338.5952780800169</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H45" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I45" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K45" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L45" t="n">
-        <v>722.7650590219088</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M45" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N45" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O45" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P45" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q45" t="n">
         <v>2542.695873660731</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.7339333320568</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="C46" t="n">
-        <v>200.7339333320568</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="D46" t="n">
-        <v>200.7339333320568</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="E46" t="n">
-        <v>200.7339333320568</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="F46" t="n">
-        <v>50.85391747321462</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="G46" t="n">
-        <v>50.85391747321462</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="H46" t="n">
         <v>50.85391747321462</v>
@@ -7809,49 +7809,49 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7133799860795</v>
+        <v>106.7133799860794</v>
       </c>
       <c r="L46" t="n">
-        <v>235.0867382264541</v>
+        <v>235.0867382264539</v>
       </c>
       <c r="M46" t="n">
-        <v>382.2173353429996</v>
+        <v>382.2173353429993</v>
       </c>
       <c r="N46" t="n">
-        <v>529.1445600039062</v>
+        <v>529.1445600039058</v>
       </c>
       <c r="O46" t="n">
-        <v>654.131656777331</v>
+        <v>654.1316567773305</v>
       </c>
       <c r="P46" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="Q46" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="R46" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="S46" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="T46" t="n">
-        <v>740.1634080363294</v>
+        <v>740.1634080363287</v>
       </c>
       <c r="U46" t="n">
-        <v>455.5832473158702</v>
+        <v>455.5832473158694</v>
       </c>
       <c r="V46" t="n">
-        <v>381.6886629010559</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="W46" t="n">
-        <v>381.6886629010559</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="X46" t="n">
-        <v>381.6886629010559</v>
+        <v>197.4485819896726</v>
       </c>
       <c r="Y46" t="n">
-        <v>381.6886629010559</v>
+        <v>197.4485819896726</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8075,10 +8075,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8236,7 +8236,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,19 +8294,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8315,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.3806259623375</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8543,10 +8543,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O9" t="n">
-        <v>222.1494342538443</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K12" t="n">
-        <v>281.8684094834668</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8780,7 +8780,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>375.7567956927516</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339986</v>
+        <v>101.1681629939446</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193964</v>
       </c>
       <c r="L15" t="n">
-        <v>234.7041579406286</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9184,7 +9184,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9260,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>352.0652005990325</v>
+        <v>352.065200599032</v>
       </c>
       <c r="Q18" t="n">
         <v>87.64858173562189</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9488,10 +9488,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>277.857805312</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>281.8684094834663</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>281.8684094834663</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,7 +10202,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10439,16 +10439,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O33" t="n">
-        <v>450.0846164268627</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10676,16 +10676,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>271.8947139899012</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11141,7 +11141,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K42" t="n">
-        <v>96.4165171624843</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11156,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599033</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11314,7 +11314,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229273</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314979</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11393,10 +11393,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>352.065200599033</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23266,7 +23266,7 @@
         <v>263.4148052998677</v>
       </c>
       <c r="E11" t="n">
-        <v>285.1569428697733</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.11215139208095</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>82.74017501331375</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>272.5289192485407</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.422184297658</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>272.4335012553398</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>285.1569428697733</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>305.880075781887</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>219.9004854041928</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>50.68293822525309</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.37032252449487</v>
       </c>
       <c r="T14" t="n">
-        <v>13.80812024184969</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>128.6206387378986</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>304.3287589577504</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>219.9004854041928</v>
+        <v>25.0676535341081</v>
       </c>
       <c r="I17" t="n">
-        <v>50.68293822525307</v>
+        <v>50.68293822525306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.97205570826426</v>
+        <v>70.97205570826425</v>
       </c>
       <c r="T17" t="n">
         <v>114.7624461578086</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>253.228661015794</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>285.1569428697733</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>305.880075781887</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>219.9004854041928</v>
       </c>
       <c r="I20" t="n">
         <v>50.68293822525307</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.97205570826425</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U20" t="n">
         <v>146.6250070121021</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W20" t="n">
-        <v>100.9223593021526</v>
+        <v>58.39582914570937</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4533780197127442</v>
+        <v>219.9004854041928</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>50.68293822525307</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.97205570826426</v>
+        <v>70.97205570826425</v>
       </c>
       <c r="T23" t="n">
         <v>114.7624461578086</v>
@@ -24265,16 +24265,16 @@
         <v>146.6250070121021</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>58.39582914570937</v>
       </c>
       <c r="X23" t="n">
-        <v>272.5289192485407</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>283.9255170447394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>263.4148052998677</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>305.8800757818869</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>113.5503829233845</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>50.68293822525305</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.97205570826428</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>146.6250070121021</v>
       </c>
       <c r="V26" t="n">
-        <v>227.9285615378371</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>65.56444747528781</v>
+        <v>272.5289192485406</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>284.422184297658</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>272.4335012553397</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>81.75054321417545</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>304.3287589577504</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>305.880075781887</v>
+        <v>166.966253255107</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.6829382252531</v>
+        <v>50.68293822525305</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U29" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>269.8588685311129</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>260.5780634412787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>301.7541262335236</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>217.325852679966</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>48.10830550102626</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.080551038814178</v>
+        <v>68.39742298403743</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>112.1878134335818</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>144.0503742878753</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>269.9542865243138</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.2580953887463</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>301.7541262335236</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>217.325852679966</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>48.10830550102626</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.39742298403736</v>
+        <v>68.39742298403743</v>
       </c>
       <c r="T35" t="n">
-        <v>112.1878134335817</v>
+        <v>112.1878134335818</v>
       </c>
       <c r="U35" t="n">
-        <v>144.0503742878752</v>
+        <v>144.0503742878753</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>225.3539288136103</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>35.22413462766818</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>35.22413462766775</v>
+        <v>260.5780634412782</v>
       </c>
       <c r="H38" t="n">
-        <v>217.3258526799659</v>
+        <v>217.325852679966</v>
       </c>
       <c r="I38" t="n">
-        <v>48.10830550102619</v>
+        <v>48.10830550102626</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.39742298403736</v>
+        <v>68.39742298403743</v>
       </c>
       <c r="T38" t="n">
-        <v>112.1878134335817</v>
+        <v>112.1878134335818</v>
       </c>
       <c r="U38" t="n">
-        <v>144.0503742878752</v>
+        <v>144.0503742878753</v>
       </c>
       <c r="V38" t="n">
-        <v>225.3539288136103</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.8316120907411</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>388.2632299707273</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.4350460587044</v>
+        <v>407.4350460587045</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>222.5824188788436</v>
       </c>
       <c r="H41" t="n">
-        <v>323.0067725051468</v>
+        <v>323.0067725051469</v>
       </c>
       <c r="I41" t="n">
-        <v>153.7892253262071</v>
+        <v>153.7892253262072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.16453680757752</v>
+        <v>63.16453680757762</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.0783428092184</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8687332587626</v>
+        <v>217.8687332587627</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>249.7312941130562</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>331.0348486387912</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>356.3349481167481</v>
       </c>
       <c r="X41" t="n">
-        <v>375.6352063494946</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.0318041456934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.1451822733091</v>
+        <v>152.1955137989793</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>165.3451771187097</v>
       </c>
       <c r="D43" t="n">
-        <v>141.170166218109</v>
+        <v>148.9665415162881</v>
       </c>
       <c r="E43" t="n">
-        <v>147.9142913720674</v>
+        <v>147.9142913720675</v>
       </c>
       <c r="F43" t="n">
-        <v>148.3812157002537</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4845883192608</v>
+        <v>164.4845883192609</v>
       </c>
       <c r="H43" t="n">
-        <v>153.6810056798439</v>
+        <v>153.681005679844</v>
       </c>
       <c r="I43" t="n">
-        <v>135.0340177878185</v>
+        <v>135.0340177878186</v>
       </c>
       <c r="J43" t="n">
-        <v>44.76899524024873</v>
+        <v>44.76899524024883</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.23077545715774</v>
+        <v>21.23077545715784</v>
       </c>
       <c r="R43" t="n">
-        <v>137.7483064277431</v>
+        <v>137.7483064277432</v>
       </c>
       <c r="S43" t="n">
-        <v>206.012215826238</v>
+        <v>206.0122158262381</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.5404841273405</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>281.7343591132548</v>
       </c>
       <c r="V43" t="n">
-        <v>255.5533186729347</v>
+        <v>255.5533186729348</v>
       </c>
       <c r="W43" t="n">
-        <v>280.7202047435479</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>226.3653067393511</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>217.2401744954188</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>263.4963725367261</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>366.5210924008218</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.4350460587044</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.986362882841</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.0067725051469</v>
       </c>
       <c r="I44" t="n">
-        <v>153.7892253262071</v>
+        <v>153.7892253262072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.16453680757752</v>
+        <v>63.16453680757762</v>
       </c>
       <c r="S44" t="n">
-        <v>174.0783428092183</v>
+        <v>174.0783428092184</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8687332587626</v>
+        <v>217.8687332587627</v>
       </c>
       <c r="U44" t="n">
-        <v>249.7312941130561</v>
+        <v>249.7312941130562</v>
       </c>
       <c r="V44" t="n">
-        <v>80.60587299424685</v>
+        <v>331.0348486387912</v>
       </c>
       <c r="W44" t="n">
-        <v>356.334948116748</v>
+        <v>356.3349481167481</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.0318041456934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.1451822733092</v>
       </c>
       <c r="C46" t="n">
-        <v>165.3451771187096</v>
+        <v>165.3451771187097</v>
       </c>
       <c r="D46" t="n">
-        <v>148.966541516288</v>
+        <v>148.9665415162881</v>
       </c>
       <c r="E46" t="n">
-        <v>147.9142913720674</v>
+        <v>147.9142913720675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>148.3812157002538</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4845883192608</v>
+        <v>164.4845883192609</v>
       </c>
       <c r="H46" t="n">
-        <v>153.6810056798439</v>
+        <v>8.552287808550602</v>
       </c>
       <c r="I46" t="n">
-        <v>135.0340177878185</v>
+        <v>135.0340177878186</v>
       </c>
       <c r="J46" t="n">
-        <v>44.76899524024873</v>
+        <v>44.76899524024883</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.23077545715774</v>
+        <v>21.23077545715784</v>
       </c>
       <c r="R46" t="n">
-        <v>137.7483064277431</v>
+        <v>137.7483064277432</v>
       </c>
       <c r="S46" t="n">
-        <v>206.012215826238</v>
+        <v>206.0122158262381</v>
       </c>
       <c r="T46" t="n">
-        <v>227.5404841273404</v>
+        <v>227.5404841273405</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>182.3976801022686</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.7202047435479</v>
+        <v>280.720204743548</v>
       </c>
       <c r="X46" t="n">
-        <v>226.3653067393511</v>
+        <v>226.3653067393512</v>
       </c>
       <c r="Y46" t="n">
         <v>217.2401744954188</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620222.2754008203</v>
+        <v>620222.2754008205</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>620222.2754008203</v>
+        <v>620222.2754008205</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>622758.4173658201</v>
+        <v>622758.4173658199</v>
       </c>
     </row>
     <row r="13">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710052.2559571182</v>
+        <v>710052.2559571184</v>
       </c>
       <c r="C2" t="n">
-        <v>710052.2559571182</v>
+        <v>710052.2559571186</v>
       </c>
       <c r="D2" t="n">
-        <v>710052.2559571184</v>
+        <v>710052.2559571185</v>
       </c>
       <c r="E2" t="n">
-        <v>644575.5029505531</v>
+        <v>644575.5029505533</v>
       </c>
       <c r="F2" t="n">
         <v>644575.5029505519</v>
@@ -26331,19 +26331,19 @@
         <v>644575.5029505519</v>
       </c>
       <c r="H2" t="n">
-        <v>644575.5029505526</v>
+        <v>644575.502950552</v>
       </c>
       <c r="I2" t="n">
         <v>644575.502950552</v>
       </c>
       <c r="J2" t="n">
-        <v>644575.5029505534</v>
+        <v>644575.5029505533</v>
       </c>
       <c r="K2" t="n">
-        <v>644575.5029505519</v>
+        <v>644575.5029505525</v>
       </c>
       <c r="L2" t="n">
-        <v>647419.0560628241</v>
+        <v>647419.0560628242</v>
       </c>
       <c r="M2" t="n">
         <v>647419.056062824</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>193830.6025094459</v>
+        <v>193830.602509446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2059.706179381533</v>
+        <v>2059.706179381457</v>
       </c>
       <c r="M3" t="n">
         <v>27504.83665689657</v>
@@ -26420,10 +26420,10 @@
         <v>230590.454856354</v>
       </c>
       <c r="C4" t="n">
+        <v>230590.454856354</v>
+      </c>
+      <c r="D4" t="n">
         <v>230590.4548563539</v>
-      </c>
-      <c r="D4" t="n">
-        <v>230590.454856354</v>
       </c>
       <c r="E4" t="n">
         <v>155595.3053248567</v>
@@ -26450,16 +26450,16 @@
         <v>157336.9363873283</v>
       </c>
       <c r="M4" t="n">
-        <v>157336.9363873284</v>
+        <v>157336.9363873283</v>
       </c>
       <c r="N4" t="n">
         <v>157336.9363873283</v>
       </c>
       <c r="O4" t="n">
-        <v>48534.30565332601</v>
+        <v>48534.30565332591</v>
       </c>
       <c r="P4" t="n">
-        <v>48534.30565332602</v>
+        <v>48534.30565332591</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>49604.69171108781</v>
       </c>
       <c r="G5" t="n">
-        <v>49604.69171108781</v>
+        <v>49604.69171108782</v>
       </c>
       <c r="H5" t="n">
         <v>49604.69171108781</v>
@@ -26493,19 +26493,19 @@
         <v>49604.69171108781</v>
       </c>
       <c r="J5" t="n">
-        <v>49604.69171108781</v>
+        <v>49604.69171108782</v>
       </c>
       <c r="K5" t="n">
-        <v>49604.69171108781</v>
+        <v>49604.69171108782</v>
       </c>
       <c r="L5" t="n">
         <v>49821.13850958084</v>
       </c>
       <c r="M5" t="n">
-        <v>49821.13850958085</v>
+        <v>49821.13850958084</v>
       </c>
       <c r="N5" t="n">
-        <v>49821.13850958085</v>
+        <v>49821.13850958084</v>
       </c>
       <c r="O5" t="n">
         <v>40936.64926079771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>237854.5817463255</v>
+        <v>237854.5817463257</v>
       </c>
       <c r="C6" t="n">
-        <v>413895.7664638529</v>
+        <v>413895.7664638532</v>
       </c>
       <c r="D6" t="n">
-        <v>413895.766463853</v>
+        <v>413895.7664638531</v>
       </c>
       <c r="E6" t="n">
-        <v>245544.9034051627</v>
+        <v>243775.2614320124</v>
       </c>
       <c r="F6" t="n">
-        <v>439375.5059146074</v>
+        <v>437605.863941457</v>
       </c>
       <c r="G6" t="n">
-        <v>439375.5059146074</v>
+        <v>437605.8639414569</v>
       </c>
       <c r="H6" t="n">
-        <v>439375.5059146081</v>
+        <v>437605.8639414571</v>
       </c>
       <c r="I6" t="n">
-        <v>439375.5059146076</v>
+        <v>437605.8639414571</v>
       </c>
       <c r="J6" t="n">
-        <v>217388.3392626871</v>
+        <v>215618.6972895365</v>
       </c>
       <c r="K6" t="n">
-        <v>439375.5059146074</v>
+        <v>437605.8639414575</v>
       </c>
       <c r="L6" t="n">
-        <v>438201.2749865334</v>
+        <v>436508.4858002013</v>
       </c>
       <c r="M6" t="n">
-        <v>412756.1445090182</v>
+        <v>411063.355322686</v>
       </c>
       <c r="N6" t="n">
-        <v>440260.9811659147</v>
+        <v>438568.1919795824</v>
       </c>
       <c r="O6" t="n">
-        <v>381978.2196206743</v>
+        <v>375529.4876903414</v>
       </c>
       <c r="P6" t="n">
-        <v>381978.2196206743</v>
+        <v>375529.4876903414</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>105.6809198251809</v>
       </c>
       <c r="J2" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="K2" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="L2" t="n">
         <v>108.2555525494078</v>
@@ -26724,10 +26724,10 @@
         <v>108.2555525494078</v>
       </c>
       <c r="O2" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="P2" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
     </row>
     <row r="3">
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
         <v>95.0103294798888</v>
@@ -26755,7 +26755,7 @@
         <v>95.0103294798888</v>
       </c>
       <c r="H3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="I3" t="n">
         <v>95.01032947988872</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226822</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.35047465594928</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>224.3298344149086</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>111.1114816664872</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>124.3457445677745</v>
       </c>
       <c r="C4" t="n">
-        <v>76.01716875775314</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27599,7 +27599,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27627,16 +27627,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>134.2337736449037</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>48.87285125202504</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27709,10 +27709,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>81.43664713248202</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>77.47938267757212</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27827,13 +27827,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>81.70223684716944</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27842,7 +27842,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.3092736415685</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>313.8373577964036</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27918,10 +27918,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27934,19 +27934,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33.98783004308132</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27988,16 +27988,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>12.44103031728633</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>38.64046520703948</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28067,10 +28067,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S11" t="n">
         <v>105.6809198251809</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
         <v>105.6809198251809</v>
@@ -28997,7 +28997,7 @@
         <v>105.6809198251809</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6809198251809</v>
+        <v>105.6809198251808</v>
       </c>
       <c r="P22" t="n">
         <v>105.6809198251809</v>
@@ -29225,7 +29225,7 @@
         <v>105.6809198251809</v>
       </c>
       <c r="L25" t="n">
-        <v>105.6809198251811</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="M25" t="n">
         <v>105.6809198251809</v>
@@ -29237,7 +29237,7 @@
         <v>105.6809198251809</v>
       </c>
       <c r="P25" t="n">
-        <v>105.6809198251809</v>
+        <v>105.6809198251807</v>
       </c>
       <c r="Q25" t="n">
         <v>105.6809198251809</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="C26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="D26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="E26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="F26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="G26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="H26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="I26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="T26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="U26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="V26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="W26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="X26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="Y26" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="C28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="D28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="E28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="F28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="G28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="H28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="I28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="J28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="K28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="L28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="M28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="N28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="P28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="R28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="T28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="V28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="W28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="X28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="C29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="D29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="E29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="F29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="G29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="H29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="I29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="T29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="U29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="V29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="W29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="X29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="Y29" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="C31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="D31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="E31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="F31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="G31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="H31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="I31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="J31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="K31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="L31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="M31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="N31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="P31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="R31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="V31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="W31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="X31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.6809198251809</v>
+        <v>105.680919825181</v>
       </c>
     </row>
     <row r="32">
@@ -29942,13 +29942,13 @@
         <v>108.2555525494078</v>
       </c>
       <c r="N34" t="n">
-        <v>45.62795959792476</v>
+        <v>108.2555525494078</v>
       </c>
       <c r="O34" t="n">
         <v>108.2555525494078</v>
       </c>
       <c r="P34" t="n">
-        <v>108.2555525494078</v>
+        <v>45.62795959792632</v>
       </c>
       <c r="Q34" t="n">
         <v>108.2555525494078</v>
@@ -30176,7 +30176,7 @@
         <v>108.2555525494078</v>
       </c>
       <c r="M37" t="n">
-        <v>45.62795959792467</v>
+        <v>108.2555525494078</v>
       </c>
       <c r="N37" t="n">
         <v>108.2555525494078</v>
@@ -30185,7 +30185,7 @@
         <v>108.2555525494078</v>
       </c>
       <c r="P37" t="n">
-        <v>108.2555525494078</v>
+        <v>45.62795959792632</v>
       </c>
       <c r="Q37" t="n">
         <v>108.2555525494078</v>
@@ -30410,7 +30410,7 @@
         <v>108.2555525494078</v>
       </c>
       <c r="L40" t="n">
-        <v>45.62795959792467</v>
+        <v>45.62795959792641</v>
       </c>
       <c r="M40" t="n">
         <v>108.2555525494078</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="C41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="D41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="E41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="F41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="G41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="H41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="I41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="S41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="T41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="U41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="V41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="W41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="X41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="C43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="D43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="E43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="F43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="G43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="H43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="I43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="J43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="K43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="L43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="M43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="N43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="O43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="P43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="R43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="S43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="T43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="U43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="V43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="W43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="X43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="C44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="D44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="E44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="F44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="G44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="H44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="I44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="S44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="T44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="U44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="V44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="W44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="X44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="C46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="D46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="E46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="F46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="G46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="H46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="I46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="J46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="K46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="L46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="M46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="N46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="O46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="P46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="R46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="S46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="T46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="U46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="V46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="W46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="X46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.574632724226916</v>
+        <v>2.574632724226817</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290093</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850213</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L20" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410154</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N21" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P21" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M22" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146321</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R22" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884373</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34795,10 +34795,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35035,7 +35035,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.64543451744501</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35263,10 +35263,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O9" t="n">
-        <v>106.2899856427332</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M11" t="n">
         <v>464.2785454406509</v>
@@ -35424,13 +35424,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>202.8721959815271</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35500,16 +35500,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320048</v>
+        <v>322.1927633781369</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>229.3558798013831</v>
       </c>
       <c r="P13" t="n">
-        <v>190.0070459484271</v>
+        <v>190.0070459484272</v>
       </c>
       <c r="Q13" t="n">
         <v>81.87551164379626</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>17.42030366054474</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144126</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>166.5012372081779</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
         <v>541.7133098798994</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.33729186070529</v>
+        <v>58.33729186070527</v>
       </c>
       <c r="K16" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L16" t="n">
-        <v>232.7763459296153</v>
+        <v>232.7763459296152</v>
       </c>
       <c r="M16" t="n">
         <v>251.7230518651413</v>
       </c>
       <c r="N16" t="n">
-        <v>251.5176251422739</v>
+        <v>251.5176251422738</v>
       </c>
       <c r="O16" t="n">
         <v>229.3558798013831</v>
@@ -35825,7 +35825,7 @@
         <v>190.0070459484272</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.87551164379627</v>
+        <v>81.87551164379626</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>444.7844470457649</v>
       </c>
       <c r="P18" t="n">
-        <v>282.235142922959</v>
+        <v>282.2351429229585</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.33729186070529</v>
+        <v>58.3372918607053</v>
       </c>
       <c r="K19" t="n">
         <v>159.5299866088984</v>
@@ -36050,7 +36050,7 @@
         <v>232.7763459296153</v>
       </c>
       <c r="M19" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651414</v>
       </c>
       <c r="N19" t="n">
         <v>251.5176251422739</v>
@@ -36062,7 +36062,7 @@
         <v>190.0070459484272</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.87551164379627</v>
+        <v>81.87551164379629</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1434222020698</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K20" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L20" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
         <v>464.2785454406509</v>
@@ -36135,13 +36135,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P20" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913163</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144126</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>214.1545323168995</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320049</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
@@ -36290,10 +36290,10 @@
         <v>251.7230518651413</v>
       </c>
       <c r="N22" t="n">
-        <v>251.5176251422739</v>
+        <v>251.5176251422738</v>
       </c>
       <c r="O22" t="n">
-        <v>229.3558798013831</v>
+        <v>229.3558798013829</v>
       </c>
       <c r="P22" t="n">
         <v>190.0070459484272</v>
@@ -36378,7 +36378,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q23" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K24" t="n">
-        <v>202.8721959815267</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L24" t="n">
         <v>413.8895281620462</v>
@@ -36448,7 +36448,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457648</v>
@@ -36457,7 +36457,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.33729186070528</v>
+        <v>58.33729186070529</v>
       </c>
       <c r="K25" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L25" t="n">
-        <v>232.7763459296154</v>
+        <v>232.7763459296153</v>
       </c>
       <c r="M25" t="n">
         <v>251.7230518651413</v>
@@ -36533,7 +36533,7 @@
         <v>229.3558798013831</v>
       </c>
       <c r="P25" t="n">
-        <v>190.0070459484271</v>
+        <v>190.007045948427</v>
       </c>
       <c r="Q25" t="n">
         <v>81.87551164379627</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.33729186070526</v>
+        <v>58.33729186070532</v>
       </c>
       <c r="K28" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L28" t="n">
-        <v>232.7763459296152</v>
+        <v>232.7763459296153</v>
       </c>
       <c r="M28" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651414</v>
       </c>
       <c r="N28" t="n">
-        <v>251.5176251422738</v>
+        <v>251.5176251422739</v>
       </c>
       <c r="O28" t="n">
         <v>229.3558798013831</v>
       </c>
       <c r="P28" t="n">
-        <v>190.0070459484271</v>
+        <v>190.0070459484272</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.87551164379624</v>
+        <v>81.8755116437963</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K30" t="n">
-        <v>202.8721959815267</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L30" t="n">
         <v>413.8895281620462</v>
@@ -36922,7 +36922,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N30" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O30" t="n">
         <v>444.7844470457648</v>
@@ -36931,7 +36931,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.33729186070526</v>
+        <v>58.33729186070532</v>
       </c>
       <c r="K31" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L31" t="n">
-        <v>232.7763459296152</v>
+        <v>232.7763459296153</v>
       </c>
       <c r="M31" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651414</v>
       </c>
       <c r="N31" t="n">
-        <v>251.5176251422738</v>
+        <v>251.5176251422739</v>
       </c>
       <c r="O31" t="n">
         <v>229.3558798013831</v>
       </c>
       <c r="P31" t="n">
-        <v>190.0070459484271</v>
+        <v>190.0070459484272</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.87551164379624</v>
+        <v>81.8755116437963</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K33" t="n">
         <v>264.8085946144125</v>
@@ -37159,16 +37159,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N33" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O33" t="n">
-        <v>382.8480484128792</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P33" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.91192458493218</v>
+        <v>60.91192458493211</v>
       </c>
       <c r="K34" t="n">
-        <v>162.1046193331253</v>
+        <v>162.1046193331252</v>
       </c>
       <c r="L34" t="n">
-        <v>235.3509786538422</v>
+        <v>235.3509786538421</v>
       </c>
       <c r="M34" t="n">
-        <v>254.2976845893682</v>
+        <v>254.2976845893681</v>
       </c>
       <c r="N34" t="n">
-        <v>191.4646649150177</v>
+        <v>254.0922578665007</v>
       </c>
       <c r="O34" t="n">
-        <v>231.93051252561</v>
+        <v>231.9305125256099</v>
       </c>
       <c r="P34" t="n">
-        <v>192.581678672654</v>
+        <v>129.9540857211726</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.45014436802316</v>
+        <v>84.4501443680231</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O36" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P36" t="n">
-        <v>202.0646563138277</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.91192458493218</v>
+        <v>60.91192458493211</v>
       </c>
       <c r="K37" t="n">
-        <v>162.1046193331253</v>
+        <v>162.1046193331252</v>
       </c>
       <c r="L37" t="n">
-        <v>235.3509786538422</v>
+        <v>235.3509786538421</v>
       </c>
       <c r="M37" t="n">
-        <v>191.6700916378851</v>
+        <v>254.2976845893681</v>
       </c>
       <c r="N37" t="n">
         <v>254.0922578665007</v>
       </c>
       <c r="O37" t="n">
-        <v>231.93051252561</v>
+        <v>231.9305125256099</v>
       </c>
       <c r="P37" t="n">
-        <v>192.581678672654</v>
+        <v>129.9540857211726</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.45014436802316</v>
+        <v>84.4501443680231</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.91192458493218</v>
+        <v>60.91192458493211</v>
       </c>
       <c r="K40" t="n">
-        <v>162.1046193331253</v>
+        <v>162.1046193331252</v>
       </c>
       <c r="L40" t="n">
-        <v>172.723385702359</v>
+        <v>172.7233857023607</v>
       </c>
       <c r="M40" t="n">
-        <v>254.2976845893682</v>
+        <v>254.2976845893681</v>
       </c>
       <c r="N40" t="n">
         <v>254.0922578665007</v>
       </c>
       <c r="O40" t="n">
-        <v>231.93051252561</v>
+        <v>231.9305125256099</v>
       </c>
       <c r="P40" t="n">
         <v>192.581678672654</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.45014436802316</v>
+        <v>84.4501443680231</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020699</v>
       </c>
       <c r="K41" t="n">
         <v>291.1516412069695</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>17.42030366054463</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L42" t="n">
         <v>413.8895281620462</v>
@@ -37876,10 +37876,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P42" t="n">
-        <v>344.1715415558448</v>
+        <v>282.2351429229594</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.42369950794435</v>
+        <v>56.42369950794425</v>
       </c>
       <c r="L43" t="n">
         <v>129.6700588286612</v>
       </c>
       <c r="M43" t="n">
-        <v>148.6167647641873</v>
+        <v>148.6167647641872</v>
       </c>
       <c r="N43" t="n">
-        <v>148.4113380413198</v>
+        <v>148.4113380413197</v>
       </c>
       <c r="O43" t="n">
-        <v>126.2495927004291</v>
+        <v>126.249592700429</v>
       </c>
       <c r="P43" t="n">
-        <v>86.90075884747316</v>
+        <v>86.90075884747304</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020699</v>
       </c>
       <c r="K44" t="n">
         <v>291.1516412069695</v>
@@ -38034,7 +38034,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P44" t="n">
-        <v>285.386553349137</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q44" t="n">
         <v>136.6325338001977</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K45" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L45" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904719</v>
       </c>
       <c r="M45" t="n">
         <v>541.7133098798994</v>
@@ -38113,10 +38113,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>282.2351429229594</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.42369950794435</v>
+        <v>56.42369950794425</v>
       </c>
       <c r="L46" t="n">
         <v>129.6700588286612</v>
       </c>
       <c r="M46" t="n">
-        <v>148.6167647641873</v>
+        <v>148.6167647641872</v>
       </c>
       <c r="N46" t="n">
-        <v>148.4113380413198</v>
+        <v>148.4113380413197</v>
       </c>
       <c r="O46" t="n">
-        <v>126.2495927004291</v>
+        <v>126.249592700429</v>
       </c>
       <c r="P46" t="n">
-        <v>86.90075884747316</v>
+        <v>86.90075884747304</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
